--- a/empirical_experiment_material/Responses/Session 3B & Final questions (Responses).xlsx
+++ b/empirical_experiment_material/Responses/Session 3B & Final questions (Responses).xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lola\Desktop\Gits\beliefFusionPlugin\empirical_experiment_material\Responses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEE2AA1-71A5-4EE9-ADF0-99A230E84266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Name the other two members of your group</t>
-  </si>
-  <si>
     <t>Please, upload a screenshot of your model (only one member of the group)</t>
   </si>
   <si>
@@ -65,12 +79,6 @@
     <t>Any suggestion for future improvements?</t>
   </si>
   <si>
-    <t>dbandera@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>Rafa y Miguel Ángel</t>
-  </si>
-  <si>
     <t>Primero analizamos cada una de las propiedades de los operadores para decidir si se aplica a nuestro caso o no, y llegamos a la conclusión de que Cumulative Belief Fusion era el operador más adecuado (seguido de Consensus &amp; Compromise fusion).</t>
   </si>
   <si>
@@ -98,12 +106,6 @@
     <t>Lo único que se me ocurre es en el ejercicio 2, no tenía claro qué valor asignar a la parte "a" del SBoolean, puesto que en el enunciado no se menciona tampoco la fiabilidad de las fuentes, dado que es algo subjetivo. En mi caso decidí ponerles 0.9 puesto que entiendo que los textos y evidencias afirman con mucha seguridad dónde están las ruinas.</t>
   </si>
   <si>
-    <t>miggalrui@uma.es</t>
-  </si>
-  <si>
-    <t>David y Rafa</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1_fa0LNaZtsY7xHSq-cMWb3-rbrTqdqty</t>
   </si>
   <si>
@@ -131,12 +133,6 @@
     <t>Para las primeras veces que se vaya a usar, estaría bien contar con mas de un ejemplo de prueba para que la familiarizacion sea más rapida</t>
   </si>
   <si>
-    <t>mfernandez@uma.es</t>
-  </si>
-  <si>
-    <t>Julia y Juan</t>
-  </si>
-  <si>
     <t>Como habia una opinion vacua, pero la tuvimos en cuenta, un primer operador era el ABF, tambien nos pareció adecuado el WBF.</t>
   </si>
   <si>
@@ -164,12 +160,6 @@
     <t>El proceso final de ver la nota con las opiniones es lo que estaría bien mejorar y que fuera más automático.</t>
   </si>
   <si>
-    <t>rgarcialuque@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>Miguel y David</t>
-  </si>
-  <si>
     <t>Comparamos los diferentes operadores de fusión, evaluando si se adecuan a nuestras posturas. Y posteriormente, evaluamos valores los valores obtenidos en MagicDraw.</t>
   </si>
   <si>
@@ -197,12 +187,6 @@
     <t>No, creo que se entiende correctamente y está muy bien explicado.</t>
   </si>
   <si>
-    <t>juanpalmaborda@hotmail.com</t>
-  </si>
-  <si>
-    <t>Julia y Manolo</t>
-  </si>
-  <si>
     <t>Hemos visto que la posibilidad era del 80% de que las ruinas existieran usando el ABF, usando el operador de Consensus nos dio que era del 97%. Por tanto ambas nos daban a entender que nos fuesemos de viaje.</t>
   </si>
   <si>
@@ -227,12 +211,6 @@
     <t>En el tema tecnico ninguna. En el experimento pondria unos textos (leidos a posteriores) y no opiniones muy marcadas para realizarlo de una manera mas realista.</t>
   </si>
   <si>
-    <t>juliarobles1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan y Manolo</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1M52ugtCITRsZ4sDChoBapPyBQ_avKwAd</t>
   </si>
   <si>
@@ -260,12 +238,6 @@
     <t xml:space="preserve">No se me ocurre ninguna ahora mismo. </t>
   </si>
   <si>
-    <t>jginermi@uoc.edu</t>
-  </si>
-  <si>
-    <t>Joan Giner</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1Fo1nwkaQuHPvlERpQBDXQl_Kcb5HJADO</t>
   </si>
   <si>
@@ -290,12 +262,6 @@
     <t>MagicDraw is sometime hard to use.</t>
   </si>
   <si>
-    <t>ialfonsod@uoc.edu</t>
-  </si>
-  <si>
-    <t>Edouard y Joan</t>
-  </si>
-  <si>
     <t>Si. usamos uno de los operadores para llegar a un decisión.</t>
   </si>
   <si>
@@ -320,12 +286,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>mgomezvazqu@uoc.edu</t>
-  </si>
-  <si>
-    <t>Marc Oriol</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes. We agree on not digging. </t>
   </si>
   <si>
@@ -345,12 +305,6 @@
   </si>
   <si>
     <t>It would be interesting to add a fusion operator, similar to Weighted Belief Fusion (or modify its behavior), but that takes into account also the strong disbelief of an agent (e.g. the example of the doctor opinion and the "doctor internships" opinion. If the doctor has a strong disbelief, and some intern has a strong belief, maybe we don't want to take into account its opinion because of the hierarchy, or the experience of the doctor, and we want to trust the doctor that says "no" to something. Maybe this is related to an external variable representing the level of value/importance/influence of an agent within a group of agents. And maybe it is interesting to consider to represent this concept within the "opinions environment".</t>
-  </si>
-  <si>
-    <t>moriolh@uoc.edu</t>
-  </si>
-  <si>
-    <t>Marcos Gomez</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1tThQdV70kNOnTPdi2Ttfo8rfXYw3wdnB</t>
@@ -381,12 +335,6 @@
 - Apart from UBooleans and UReals, another interesting DataType could be UEnum (e.g. outputs of ML classifiers).</t>
   </si>
   <si>
-    <t>ebatot@uoc.edu</t>
-  </si>
-  <si>
-    <t>Joan &amp; Ivan</t>
-  </si>
-  <si>
     <t>Hardly. We agreed on the consensusCompromiseFusion operator</t>
   </si>
   <si>
@@ -414,12 +362,6 @@
     <t xml:space="preserve">Same as previous. But time runs and people are going to restaurant. it seems they are gona leave me behind.... THe experiment was great, and timing right, thanks for your interest. </t>
   </si>
   <si>
-    <t>carloscanal@uma.es</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS CANAL VELASCO</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -438,12 +380,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>mgm7cns@uma.es</t>
-  </si>
-  <si>
-    <t>Carlos y Alejandro</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1h-KeFXFPzfji1BQSXS77dOGQ1DlPam-I</t>
   </si>
   <si>
@@ -466,12 +402,6 @@
   </si>
   <si>
     <t>Ninguna</t>
-  </si>
-  <si>
-    <t>apvereda@uma.es</t>
-  </si>
-  <si>
-    <t>Carlos y María</t>
   </si>
   <si>
     <t>Si, no excavaremos</t>
@@ -516,23 +446,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,116 +473,125 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -839,26 +781,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="23" width="21.57"/>
+    <col min="1" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,812 +849,722 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44511.48803947917</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>44511.488039479169</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44511.49074105324</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44511.491288854166</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44511.49724652778</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>44511.497246527782</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44511.49768136574</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>44511.497681365741</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.0</v>
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44511.50055157408</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>44511.500551574078</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4</v>
+      </c>
       <c r="L7" s="3">
-        <v>5.0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44518.56585171296</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>44518.565851712963</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.0</v>
+        <v>71</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
       <c r="L8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44518.56725354167</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>44518.567253541667</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
       <c r="L9" s="3">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44518.56785298611</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>44518.567852986111</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
       <c r="L10" s="3">
-        <v>4.0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44518.56818475694</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>44518.568184756943</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44518.56956287037</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>44518.569562870369</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44526.57822738426</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>44526.578227384263</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
       <c r="L13" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44526.5786263426</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>44526.578626342598</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
       <c r="L14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44526.579090914354</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>152</v>
+        <v>122</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.0</v>
+        <v>124</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
       <c r="L15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1731,10 +1586,8 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1756,10 +1609,8 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1781,10 +1632,8 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1806,10 +1655,8 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1831,10 +1678,8 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1856,10 +1701,8 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1881,10 +1724,8 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1906,10 +1747,8 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1931,10 +1770,8 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1956,10 +1793,8 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1981,10 +1816,8 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2006,10 +1839,8 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2031,10 +1862,8 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2056,10 +1885,8 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2081,10 +1908,8 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2106,10 +1931,8 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2131,10 +1954,8 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2156,10 +1977,8 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2181,10 +2000,8 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2206,10 +2023,8 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2231,10 +2046,8 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2256,10 +2069,8 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2281,10 +2092,8 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2306,10 +2115,8 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2331,10 +2138,8 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2356,10 +2161,8 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2381,10 +2184,8 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2406,10 +2207,8 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2431,10 +2230,8 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2456,10 +2253,8 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2481,10 +2276,8 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2506,10 +2299,8 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2531,10 +2322,8 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2556,10 +2345,8 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2581,10 +2368,8 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2606,10 +2391,8 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2631,10 +2414,8 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2656,10 +2437,8 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2681,10 +2460,8 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2706,10 +2483,8 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2731,10 +2506,8 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2756,10 +2529,8 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2781,10 +2552,8 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2806,10 +2575,8 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2831,10 +2598,8 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2856,10 +2621,8 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2881,10 +2644,8 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2906,10 +2667,8 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2931,10 +2690,8 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2956,10 +2713,8 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2981,10 +2736,8 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3006,10 +2759,8 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3031,10 +2782,8 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3056,10 +2805,8 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3081,10 +2828,8 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3106,10 +2851,8 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3131,10 +2874,8 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3156,10 +2897,8 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3181,10 +2920,8 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3206,10 +2943,8 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3231,10 +2966,8 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3256,10 +2989,8 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3281,10 +3012,8 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3306,10 +3035,8 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3331,10 +3058,8 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3356,10 +3081,8 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3381,10 +3104,8 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-    </row>
-    <row r="83">
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3406,10 +3127,8 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3431,10 +3150,8 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3456,10 +3173,8 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3481,10 +3196,8 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3506,10 +3219,8 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3531,10 +3242,8 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-    </row>
-    <row r="89">
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3556,10 +3265,8 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3581,10 +3288,8 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-    </row>
-    <row r="91">
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3606,10 +3311,8 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3631,10 +3334,8 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-    </row>
-    <row r="93">
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3656,10 +3357,8 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-    </row>
-    <row r="94">
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3681,10 +3380,8 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3706,10 +3403,8 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-    </row>
-    <row r="96">
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3731,10 +3426,8 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3756,10 +3449,8 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3781,10 +3472,8 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3806,10 +3495,8 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100">
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3831,10 +3518,8 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101">
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3856,10 +3541,8 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102">
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3881,10 +3564,8 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-    </row>
-    <row r="103">
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3906,10 +3587,8 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-    </row>
-    <row r="104">
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3931,10 +3610,8 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-    </row>
-    <row r="105">
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3956,10 +3633,8 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-    </row>
-    <row r="106">
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3981,10 +3656,8 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4006,10 +3679,8 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4031,10 +3702,8 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4056,10 +3725,8 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4081,10 +3748,8 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4106,10 +3771,8 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4131,10 +3794,8 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4156,10 +3817,8 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4181,10 +3840,8 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4206,399 +3863,398 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D7"/>
-    <hyperlink r:id="rId3" ref="D8"/>
-    <hyperlink r:id="rId4" ref="D11"/>
-    <hyperlink r:id="rId5" ref="D14"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E13" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B16" s="11">
-        <f>median(B2:B15)</f>
+        <f>MEDIAN(B2:B15)</f>
         <v>1</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:H16" si="1">median(E2:E15)</f>
+        <f t="shared" ref="E16:H16" si="0">MEDIAN(E2:E15)</f>
         <v>4</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B17" s="14">
-        <f>mode(B2:B16)</f>
+        <f>MODE(B2:B16)</f>
         <v>1</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14">
-        <f t="shared" ref="E17:H17" si="2">mode(E2:E16)</f>
+        <f t="shared" ref="E17:H17" si="1">MODE(E2:E16)</f>
         <v>4</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>